--- a/table/A2A.xlsx
+++ b/table/A2A.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>No transfer</t>
   </si>
@@ -90,9 +90,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -395,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H12" sqref="H12:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,14 +409,15 @@
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>5</v>
       </c>
@@ -428,8 +430,20 @@
       <c r="E2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -445,8 +459,27 @@
       <c r="E3" s="1">
         <v>0.31495000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <f>B3*100</f>
+        <v>23.515000000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:L3" si="0">C3*100</f>
+        <v>26.790000000000003</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="0"/>
+        <v>29.599999999999998</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="0"/>
+        <v>31.495000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -462,8 +495,27 @@
       <c r="E4" s="1">
         <v>0.414435</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" ref="I4:I9" si="1">B4*100</f>
+        <v>39.617000000000004</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J9" si="2">C4*100</f>
+        <v>40.182499999999997</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:K9" si="3">D4*100</f>
+        <v>40.673500000000004</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L9" si="4">E4*100</f>
+        <v>41.4435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -479,8 +531,27 @@
       <c r="E5" s="1">
         <v>0.39740500000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="1"/>
+        <v>38.999000000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>39.337499999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="3"/>
+        <v>39.6235</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="4"/>
+        <v>39.740499999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -496,8 +567,27 @@
       <c r="E6" s="1">
         <v>0.38812000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>31.4635</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>34.7575</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="3"/>
+        <v>37.407000000000004</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="4"/>
+        <v>38.812000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -513,8 +603,27 @@
       <c r="E7" s="1">
         <v>0.36325000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="1"/>
+        <v>29.858000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>32.860499999999995</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="3"/>
+        <v>35.221999999999994</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="4"/>
+        <v>36.325000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -530,8 +639,27 @@
       <c r="E8" s="1">
         <v>0.40466999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="1"/>
+        <v>37.8005</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>38.805499999999995</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="3"/>
+        <v>39.795999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="4"/>
+        <v>40.466999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -547,18 +675,37 @@
       <c r="E9" s="1">
         <v>0.41093000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="1"/>
+        <v>37.828000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>39.313500000000005</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
+        <v>40.366500000000002</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="4"/>
+        <v>41.093000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -574,8 +721,27 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f>B12*100</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J18" si="5">C12*100</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12:K18" si="6">D12*100</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" ref="L12:L18" si="7">E12*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -591,8 +757,27 @@
       <c r="E13" s="1">
         <v>1.9298367867764201E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I18" si="8">B13*100</f>
+        <v>1.9834061630589899</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0534970091663598</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="6"/>
+        <v>2.02725640526555</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9298367867764201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -608,8 +793,27 @@
       <c r="E14" s="1">
         <v>2.02108006230254E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1347746123365998</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
+        <v>1.9521042656913699</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="6"/>
+        <v>1.93611808790437</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="7"/>
+        <v>2.02108006230254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -625,8 +829,27 @@
       <c r="E15" s="1">
         <v>2.0303768242380699E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5138991412981202</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
+        <v>2.3715430903813801</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="6"/>
+        <v>2.09927993680131</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0303768242380698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -642,8 +865,27 @@
       <c r="E16" s="1">
         <v>1.25641735022138E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="8"/>
+        <v>1.51892372047602</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3104279747901799</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3013987359915999</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="7"/>
+        <v>1.25641735022138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -659,8 +901,27 @@
       <c r="E17" s="1">
         <v>1.95830259172519E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1135892246218901</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0597660932898902</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9618448099475601</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="7"/>
+        <v>1.9583025917251899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -675,6 +936,25 @@
       </c>
       <c r="E18" s="1">
         <v>2.0520362277595801E-2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3766954135924698</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="5"/>
+        <v>2.2566395923994698</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="6"/>
+        <v>2.18242810537506</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="7"/>
+        <v>2.0520362277595803</v>
       </c>
     </row>
   </sheetData>
